--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-RegresionLineal.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-RegresionLineal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\PROCESO DOCUMENTAL\EJEMPLOS EN EXCEL\BONILLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C067D8C0-C9C1-462B-B3BA-565315F26E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821F972A-D0C7-4BEB-AC15-1868200A8C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" activeTab="1" xr2:uid="{CFB13EAF-9C86-489F-96FA-17E401F88D18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="13176" windowHeight="22536" activeTab="1" xr2:uid="{CFB13EAF-9C86-489F-96FA-17E401F88D18}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -3975,16 +3975,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="23.53125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.53125" style="3" customWidth="1"/>
+    <col min="1" max="5" width="23.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
     </row>
-    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>178</v>
       </c>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="14" t="s">
         <v>173</v>
@@ -4020,7 +4020,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>167</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>165</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>163</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>162</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>161</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>160</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>159</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>158</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>157</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>156</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>155</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>154</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>153</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>152</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>151</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>150</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>149</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>148</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>147</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>146</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>145</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>144</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>143</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>142</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>141</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>140</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>139</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>138</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>137</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>136</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>135</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>134</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>133</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>132</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>131</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>130</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>129</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>128</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>127</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>126</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>125</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>124</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>123</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>122</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>121</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>120</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>119</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>118</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>117</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>116</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>115</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>114</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>113</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>112</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>111</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>110</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>109</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>108</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>107</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>106</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>105</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>104</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>103</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>102</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>101</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>100</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>99</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>98</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>97</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>96</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>95</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>94</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>93</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>92</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>91</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>90</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>89</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>88</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>87</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>86</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>85</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>84</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>83</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>82</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>81</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>80</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>79</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>78</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>77</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>76</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>75</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>74</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>73</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>72</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>71</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>70</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>69</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>68</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>67</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>66</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>65</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>64</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>63</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>62</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>61</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>60</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>59</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>58</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>57</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>56</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>55</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>54</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>53</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>52</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>51</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>50</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>49</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>48</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>47</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>46</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>45</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>44</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>43</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>42</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>41</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>40</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>39</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>38</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>37</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>36</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>35</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>34</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>33</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
         <v>32</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>31</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>30</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>29</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>28</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>27</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>26</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>25</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>24</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
         <v>23</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
         <v>22</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>21</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
         <v>20</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
         <v>19</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
         <v>18</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>17</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>16</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>15</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>14</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
         <v>13</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
         <v>12</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>11</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>10</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>9</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>8</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>7</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
         <v>6</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
         <v>5</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
         <v>4</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
         <v>3</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>2</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
         <v>1</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>0</v>
       </c>
@@ -7334,22 +7334,22 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:M18"/>
+  <dimension ref="A2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.53125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.53125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="11.5546875" style="1" customWidth="1"/>
     <col min="8" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.53125" style="1" hidden="1"/>
+    <col min="14" max="16384" width="11.5546875" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>174</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>168</v>
       </c>
@@ -7365,15 +7365,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="23.65" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="23.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>164</v>
       </c>
@@ -7381,68 +7381,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="str" cm="1">
-        <f t="array" ref="B7:B18">_xll.R.MR_Lineal(DATOS!B3:B160,DATOS!C3:E160,C5,C3,DATOS!F3:F160,C2,C4,C4)</f>
-        <v>[01] Estimar Modelo de Regresión Lineal</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+        <f t="array" ref="B7:B25">_xll.R.MR_Lineal(DATOS!B3:B160,DATOS!C3:E160,C5,C3,DATOS!F3:F160,C2,C4,C4)</f>
+        <v>R4XCL_ModeloEstimado</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
-        <v>[02] Estimar valores para la [Y] (dentro de muestra)</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
-        <v>[03] Estimar valores para la [Y] (fuera de muestra)</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+        <v>===================================================</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
-        <v>[04] Obtener efectos marginales</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">                           Dependent variable:     </v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <v>[05] Calcular coeficiente de Inflación de Varianza VIF</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">                      -----------------------------</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="str">
-        <v>[06] Test de heterocedasticidad Breusch-Pagan</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">                           COVID19_deaths_100K     </v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="str">
-        <v>[07] Estimación robusta de coeficientes</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+        <v>---------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="str">
-        <v>[08] Identificar observaciones de influencia en la muestra</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">Median_age               1.321*** (0.670, 1.973)   </v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="str">
-        <v>[09] Especificación empleada</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">Island                -19.384*** (-32.834, -5.933) </v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="str">
-        <v>[10] Guardar Modelo Estimado en R</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">Index_exposure_to_C19   11.897*** (7.205, 16.588)  </v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="str">
-        <v>[11] Modelo estimado con formato original de R</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+        <v>Constant              -26.794*** (-42.921, -10.667)</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="str">
-        <v>[12] Obtener residuos estimados</v>
+        <v>---------------------------------------------------</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="str">
+        <v xml:space="preserve">Observations                       155             </v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="str">
+        <v xml:space="preserve">R2                                0.465            </v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="str">
+        <v xml:space="preserve">Adjusted R2                       0.454            </v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="str">
+        <v xml:space="preserve">Residual Std. Error         28.318 (df = 151)      </v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="str">
+        <v xml:space="preserve">F Statistic              43.746*** (df = 3; 151)   </v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="str">
+        <v>===================================================</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="str">
+        <v>Note:                   *p&lt;0.1; **p&lt;0.05; ***p&lt;0.01</v>
       </c>
     </row>
   </sheetData>

--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-RegresionLineal.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-RegresionLineal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821F972A-D0C7-4BEB-AC15-1868200A8C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FCE0CE-B21F-40B8-811B-DC804BBC453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="13176" windowHeight="22536" activeTab="1" xr2:uid="{CFB13EAF-9C86-489F-96FA-17E401F88D18}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{CFB13EAF-9C86-489F-96FA-17E401F88D18}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -702,7 +702,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,6 +724,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +764,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -790,6 +796,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="3" xr:uid="{F3C49B56-9FC5-45AD-8480-6941D798A0CA}"/>
@@ -3971,20 +3981,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571A69EE-87AF-4488-BF34-92D83CFDC6FC}">
   <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="23.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" style="3" customWidth="1"/>
+    <col min="1" max="5" width="23.53125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.53125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="16"/>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>178</v>
       </c>
@@ -4002,7 +4012,7 @@
       </c>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="15"/>
       <c r="B3" s="14" t="s">
         <v>173</v>
@@ -4020,7 +4030,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>167</v>
       </c>
@@ -4036,11 +4046,11 @@
       <c r="E4" s="6">
         <v>1.6875032186508179</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>165</v>
       </c>
@@ -4060,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>163</v>
       </c>
@@ -4080,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>162</v>
       </c>
@@ -4100,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>161</v>
       </c>
@@ -4120,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>160</v>
       </c>
@@ -4137,10 +4147,10 @@
         <v>1.8946033716201782</v>
       </c>
       <c r="F9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>159</v>
       </c>
@@ -4160,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>158</v>
       </c>
@@ -4180,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>157</v>
       </c>
@@ -4200,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>156</v>
       </c>
@@ -4220,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>155</v>
       </c>
@@ -4240,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>154</v>
       </c>
@@ -4260,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>153</v>
       </c>
@@ -4277,10 +4287,10 @@
         <v>5.0308990478515625</v>
       </c>
       <c r="F16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>152</v>
       </c>
@@ -4300,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>151</v>
       </c>
@@ -4320,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>150</v>
       </c>
@@ -4340,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>149</v>
       </c>
@@ -4360,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>148</v>
       </c>
@@ -4380,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>147</v>
       </c>
@@ -4400,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>146</v>
       </c>
@@ -4420,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>145</v>
       </c>
@@ -4440,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>144</v>
       </c>
@@ -4460,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>143</v>
       </c>
@@ -4480,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>142</v>
       </c>
@@ -4500,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>141</v>
       </c>
@@ -4520,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>140</v>
       </c>
@@ -4540,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>139</v>
       </c>
@@ -4560,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
         <v>138</v>
       </c>
@@ -4580,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>137</v>
       </c>
@@ -4600,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="8" t="s">
         <v>136</v>
       </c>
@@ -4620,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
         <v>135</v>
       </c>
@@ -4640,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="8" t="s">
         <v>134</v>
       </c>
@@ -4660,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
         <v>133</v>
       </c>
@@ -4680,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
         <v>132</v>
       </c>
@@ -4700,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="8" t="s">
         <v>131</v>
       </c>
@@ -4720,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>130</v>
       </c>
@@ -4740,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
         <v>129</v>
       </c>
@@ -4760,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
         <v>128</v>
       </c>
@@ -4780,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
         <v>127</v>
       </c>
@@ -4800,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
         <v>126</v>
       </c>
@@ -4820,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
         <v>125</v>
       </c>
@@ -4840,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
         <v>124</v>
       </c>
@@ -4860,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
         <v>123</v>
       </c>
@@ -4880,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
         <v>122</v>
       </c>
@@ -4900,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
         <v>121</v>
       </c>
@@ -4920,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="8" t="s">
         <v>120</v>
       </c>
@@ -4940,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="8" t="s">
         <v>119</v>
       </c>
@@ -4960,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="8" t="s">
         <v>118</v>
       </c>
@@ -4980,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="8" t="s">
         <v>117</v>
       </c>
@@ -5000,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="8" t="s">
         <v>116</v>
       </c>
@@ -5020,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="8" t="s">
         <v>115</v>
       </c>
@@ -5040,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="8" t="s">
         <v>114</v>
       </c>
@@ -5060,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="8" t="s">
         <v>113</v>
       </c>
@@ -5080,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="8" t="s">
         <v>112</v>
       </c>
@@ -5100,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="8" t="s">
         <v>111</v>
       </c>
@@ -5120,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="8" t="s">
         <v>110</v>
       </c>
@@ -5140,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="8" t="s">
         <v>109</v>
       </c>
@@ -5160,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="8" t="s">
         <v>108</v>
       </c>
@@ -5180,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="8" t="s">
         <v>107</v>
       </c>
@@ -5200,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="8" t="s">
         <v>106</v>
       </c>
@@ -5220,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="8" t="s">
         <v>105</v>
       </c>
@@ -5240,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="8" t="s">
         <v>104</v>
       </c>
@@ -5260,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="8" t="s">
         <v>103</v>
       </c>
@@ -5280,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="8" t="s">
         <v>102</v>
       </c>
@@ -5300,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="8" t="s">
         <v>101</v>
       </c>
@@ -5320,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
         <v>100</v>
       </c>
@@ -5340,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="8" t="s">
         <v>99</v>
       </c>
@@ -5360,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="8" t="s">
         <v>98</v>
       </c>
@@ -5380,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="8" t="s">
         <v>97</v>
       </c>
@@ -5400,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="8" t="s">
         <v>96</v>
       </c>
@@ -5420,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="8" t="s">
         <v>95</v>
       </c>
@@ -5440,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="8" t="s">
         <v>94</v>
       </c>
@@ -5460,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="8" t="s">
         <v>93</v>
       </c>
@@ -5480,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="8" t="s">
         <v>92</v>
       </c>
@@ -5500,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="8" t="s">
         <v>91</v>
       </c>
@@ -5520,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="8" t="s">
         <v>90</v>
       </c>
@@ -5540,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="8" t="s">
         <v>89</v>
       </c>
@@ -5560,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="8" t="s">
         <v>88</v>
       </c>
@@ -5580,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="8" t="s">
         <v>87</v>
       </c>
@@ -5600,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="8" t="s">
         <v>86</v>
       </c>
@@ -5620,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="8" t="s">
         <v>85</v>
       </c>
@@ -5640,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="8" t="s">
         <v>84</v>
       </c>
@@ -5660,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="8" t="s">
         <v>83</v>
       </c>
@@ -5680,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="8" t="s">
         <v>82</v>
       </c>
@@ -5700,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="8" t="s">
         <v>81</v>
       </c>
@@ -5720,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="8" t="s">
         <v>80</v>
       </c>
@@ -5740,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="8" t="s">
         <v>79</v>
       </c>
@@ -5760,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="8" t="s">
         <v>78</v>
       </c>
@@ -5780,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="8" t="s">
         <v>77</v>
       </c>
@@ -5800,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="8" t="s">
         <v>76</v>
       </c>
@@ -5820,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="8" t="s">
         <v>75</v>
       </c>
@@ -5840,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="8" t="s">
         <v>74</v>
       </c>
@@ -5860,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="8" t="s">
         <v>73</v>
       </c>
@@ -5880,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="8" t="s">
         <v>72</v>
       </c>
@@ -5900,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="8" t="s">
         <v>71</v>
       </c>
@@ -5920,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="8" t="s">
         <v>70</v>
       </c>
@@ -5940,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="8" t="s">
         <v>69</v>
       </c>
@@ -5960,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="8" t="s">
         <v>68</v>
       </c>
@@ -5980,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="8" t="s">
         <v>67</v>
       </c>
@@ -6000,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="8" t="s">
         <v>66</v>
       </c>
@@ -6020,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="8" t="s">
         <v>65</v>
       </c>
@@ -6040,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="8" t="s">
         <v>64</v>
       </c>
@@ -6060,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="8" t="s">
         <v>63</v>
       </c>
@@ -6080,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="8" t="s">
         <v>62</v>
       </c>
@@ -6100,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="8" t="s">
         <v>61</v>
       </c>
@@ -6120,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="8" t="s">
         <v>60</v>
       </c>
@@ -6140,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="8" t="s">
         <v>59</v>
       </c>
@@ -6160,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="8" t="s">
         <v>58</v>
       </c>
@@ -6180,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="8" t="s">
         <v>57</v>
       </c>
@@ -6200,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="8" t="s">
         <v>56</v>
       </c>
@@ -6220,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="8" t="s">
         <v>55</v>
       </c>
@@ -6240,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="8" t="s">
         <v>54</v>
       </c>
@@ -6260,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="8" t="s">
         <v>53</v>
       </c>
@@ -6280,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="8" t="s">
         <v>52</v>
       </c>
@@ -6300,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="8" t="s">
         <v>51</v>
       </c>
@@ -6320,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="8" t="s">
         <v>50</v>
       </c>
@@ -6340,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="8" t="s">
         <v>49</v>
       </c>
@@ -6360,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="8" t="s">
         <v>48</v>
       </c>
@@ -6380,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="8" t="s">
         <v>47</v>
       </c>
@@ -6400,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="8" t="s">
         <v>46</v>
       </c>
@@ -6420,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="8" t="s">
         <v>45</v>
       </c>
@@ -6440,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="8" t="s">
         <v>44</v>
       </c>
@@ -6460,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="8" t="s">
         <v>43</v>
       </c>
@@ -6480,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="8" t="s">
         <v>42</v>
       </c>
@@ -6500,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="8" t="s">
         <v>41</v>
       </c>
@@ -6520,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="8" t="s">
         <v>40</v>
       </c>
@@ -6540,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="8" t="s">
         <v>39</v>
       </c>
@@ -6560,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="8" t="s">
         <v>38</v>
       </c>
@@ -6580,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="8" t="s">
         <v>37</v>
       </c>
@@ -6600,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="8" t="s">
         <v>36</v>
       </c>
@@ -6620,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="8" t="s">
         <v>35</v>
       </c>
@@ -6640,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="8" t="s">
         <v>34</v>
       </c>
@@ -6660,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="8" t="s">
         <v>33</v>
       </c>
@@ -6680,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="8" t="s">
         <v>32</v>
       </c>
@@ -6700,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="8" t="s">
         <v>31</v>
       </c>
@@ -6720,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="8" t="s">
         <v>30</v>
       </c>
@@ -6740,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="8" t="s">
         <v>29</v>
       </c>
@@ -6760,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="8" t="s">
         <v>28</v>
       </c>
@@ -6780,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="8" t="s">
         <v>27</v>
       </c>
@@ -6800,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="8" t="s">
         <v>26</v>
       </c>
@@ -6820,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="8" t="s">
         <v>25</v>
       </c>
@@ -6840,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="8" t="s">
         <v>24</v>
       </c>
@@ -6860,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="8" t="s">
         <v>23</v>
       </c>
@@ -6880,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="8" t="s">
         <v>22</v>
       </c>
@@ -6900,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="8" t="s">
         <v>21</v>
       </c>
@@ -6920,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="8" t="s">
         <v>20</v>
       </c>
@@ -6940,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="8" t="s">
         <v>19</v>
       </c>
@@ -6960,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="8" t="s">
         <v>18</v>
       </c>
@@ -6980,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="8" t="s">
         <v>17</v>
       </c>
@@ -7000,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="8" t="s">
         <v>16</v>
       </c>
@@ -7020,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="8" t="s">
         <v>15</v>
       </c>
@@ -7040,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="8" t="s">
         <v>14</v>
       </c>
@@ -7060,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="8" t="s">
         <v>13</v>
       </c>
@@ -7080,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="8" t="s">
         <v>12</v>
       </c>
@@ -7100,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="8" t="s">
         <v>11</v>
       </c>
@@ -7120,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="8" t="s">
         <v>10</v>
       </c>
@@ -7140,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="8" t="s">
         <v>9</v>
       </c>
@@ -7160,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="8" t="s">
         <v>8</v>
       </c>
@@ -7173,10 +7183,10 @@
         <v>1.4627439975738525</v>
       </c>
       <c r="F161" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="8" t="s">
         <v>7</v>
       </c>
@@ -7196,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="8" t="s">
         <v>6</v>
       </c>
@@ -7216,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="8" t="s">
         <v>5</v>
       </c>
@@ -7236,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="8" t="s">
         <v>4</v>
       </c>
@@ -7256,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="8" t="s">
         <v>3</v>
       </c>
@@ -7276,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="8" t="s">
         <v>2</v>
       </c>
@@ -7287,10 +7297,10 @@
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="8" t="s">
         <v>1</v>
       </c>
@@ -7301,10 +7311,10 @@
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="8" t="s">
         <v>0</v>
       </c>
@@ -7334,30 +7344,31 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:M25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.5546875" style="1" customWidth="1"/>
+    <col min="3" max="7" width="11.53125" style="1" customWidth="1"/>
     <col min="8" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="1" hidden="1"/>
+    <col min="14" max="16384" width="11.53125" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:3" ht="13.9" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>174</v>
       </c>
       <c r="C2" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="14.4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.9" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>168</v>
       </c>
@@ -7365,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.9" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>166</v>
       </c>
@@ -7373,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="23.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="23.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>164</v>
       </c>
@@ -7381,101 +7392,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="str" cm="1">
         <f t="array" ref="B7:B25">_xll.R.MR_Lineal(DATOS!B3:B160,DATOS!C3:E160,C5,C3,DATOS!F3:F160,C2,C4,C4)</f>
         <v>R4XCL_ModeloEstimado</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="str">
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="str">
         <v>===================================================</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="str">
         <v xml:space="preserve">                           Dependent variable:     </v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="str">
         <v xml:space="preserve">                      -----------------------------</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="str">
         <v xml:space="preserve">                           COVID19_deaths_100K     </v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="str">
         <v>---------------------------------------------------</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="str">
-        <v xml:space="preserve">Median_age               1.321*** (0.670, 1.973)   </v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Median_age               1.304*** (0.659, 1.949)   </v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="str">
-        <v xml:space="preserve">Island                -19.384*** (-32.834, -5.933) </v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Island                -19.380*** (-32.755, -6.006) </v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="str">
-        <v xml:space="preserve">Index_exposure_to_C19   11.897*** (7.205, 16.588)  </v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Index_exposure_to_C19   12.117*** (7.539, 16.694)  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="str">
-        <v>Constant              -26.794*** (-42.921, -10.667)</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>Constant              -26.493*** (-42.446, -10.539)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="str">
         <v>---------------------------------------------------</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="str">
-        <v xml:space="preserve">Observations                       155             </v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Observations                       157             </v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="17"/>
       <c r="B20" s="2" t="str">
-        <v xml:space="preserve">R2                                0.465            </v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">R2                                0.475            </v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="17"/>
       <c r="B21" s="2" t="str">
-        <v xml:space="preserve">Adjusted R2                       0.454            </v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Adjusted R2                       0.465            </v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="str">
-        <v xml:space="preserve">Residual Std. Error         28.318 (df = 151)      </v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Residual Std. Error         28.159 (df = 153)      </v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="str">
-        <v xml:space="preserve">F Statistic              43.746*** (df = 3; 151)   </v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">F Statistic              46.114*** (df = 3; 153)   </v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="str">
         <v>===================================================</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="str">
         <v>Note:                   *p&lt;0.1; **p&lt;0.05; ***p&lt;0.01</v>
       </c>
